--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Majul\Desktop\encoder_youtube_probado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Majul\Documents\rotary_encoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF979E9E-7655-4350-AEAD-52CB8825FC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B0F7A-14E3-47B2-A398-77BA1B53DBCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9ABB25B2-5A64-4647-BD16-A8E5F9930F9D}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A2:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
     <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -508,7 +508,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>360</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10">
         <f>+F7/F6</f>
         <v>16.989111790387643</v>
@@ -623,12 +623,8 @@
       <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="O7">
-        <f>1/1.003</f>
-        <v>0.99700897308075787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>17</v>
       </c>
@@ -665,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -702,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -744,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>100</v>
       </c>
@@ -762,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -793,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -825,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
